--- a/target/test-classes/com/TestData/TestData.xlsx
+++ b/target/test-classes/com/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwala\eclipse-workspace\demowebshop\src\test\java\com\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE2E73B-7FC3-40D2-AA7C-49A766AD6BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD293F0-7E13-4325-B683-842BC78183C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7434C01-AA78-4A83-9EAA-52226161AD78}"/>
   </bookViews>
@@ -153,16 +153,16 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>Bholu</t>
-  </si>
-  <si>
-    <t>bholusingh@tosca.com</t>
-  </si>
-  <si>
-    <t>milharma123@tosca.com</t>
-  </si>
-  <si>
-    <t>Mili</t>
+    <t>Deepu</t>
+  </si>
+  <si>
+    <t>Tulika</t>
+  </si>
+  <si>
+    <t>deepusingh@tosca.com</t>
+  </si>
+  <si>
+    <t>tulikasarma123@tosca.com</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +586,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
@@ -600,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -629,7 +629,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +688,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -732,7 +732,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{995FFF20-FB84-4399-8C6C-13D4B308C7AD}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AFC34107-1FDA-4A3D-B636-C02A0F936F8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -743,7 +743,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -863,7 +863,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BA3DF46D-7B8A-4BF4-8FB8-490E83AC9D8E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A7D51714-4C17-4B3E-AC2A-3C0BDB476DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,7 +893,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -904,7 +904,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5B1CAC07-BCC5-43FA-8C33-3BA8A322E9FA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{02F9FA3D-561B-4F40-BBA4-97BDEDDCCEDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
